--- a/Meetings/Cancel Meeting Registration and Add Cancellation Fee/Main.rvl.xlsx
+++ b/Meetings/Cancel Meeting Registration and Add Cancellation Fee/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="96">
   <si>
     <t>Flow</t>
   </si>
@@ -253,6 +253,54 @@
   </si>
   <si>
     <t>$10.10</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\MeetingData.xlsx</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>Navigator</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>G_OpenAreaList</t>
+  </si>
+  <si>
+    <t>***Test adds a new main Meeting Registration identified in the MeetingData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Value for g_testname must be defined to determine row in the spreadsheet for values and objects.</t>
+  </si>
+  <si>
+    <t>*****Test must already be in an invoice with batch selected.</t>
+  </si>
+  <si>
+    <t>***Test cancels Meeting Registration identified in the MeetingData spreadsheet.</t>
+  </si>
+  <si>
+    <t>*****Test must already be in an invoice that contains the Meeting Registration with batch selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Meeting Registration: </t>
+  </si>
+  <si>
+    <t>Cancel Meeting and apply cancellation fee.</t>
+  </si>
+  <si>
+    <t>Validate invoice totals with canellation fee.</t>
   </si>
 </sst>
 </file>
@@ -273,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="193">
+  <borders count="205">
     <border>
       <left/>
       <right/>
@@ -473,11 +521,23 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -671,6 +731,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="200" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="201" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="202" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="203" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="204" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -796,7 +868,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
         <v>48</v>
@@ -886,497 +958,688 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="A15" s="200"/>
     </row>
     <row r="16">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="199"/>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="172"/>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="197"/>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="196"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="195"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="171"/>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="170"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="168" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
+      <c r="G20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="165"/>
+      <c r="A21" s="194"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="164"/>
+      <c r="A22" s="193"/>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="186" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="163"/>
+      <c r="A24" s="169" t="s">
+        <v>8</v>
+      </c>
       <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="201"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
         <v>13</v>
       </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="187" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
       <c r="G25" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="161"/>
+      <c r="A26" s="202"/>
       <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
+      <c r="A27" s="171"/>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="170"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="40"/>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="43" t="s">
+      <c r="A30" s="203"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="165"/>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="48"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="188"/>
-      <c r="B31" t="s">
-        <v>38</v>
+      <c r="D31" t="s">
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="164"/>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="186" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="189"/>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="192"/>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="191"/>
+      <c r="A34" s="163"/>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="161"/>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="32"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="204"/>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="40"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="41"/>
+      <c r="B41" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="48"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="188"/>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="189"/>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="192"/>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="191"/>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="190"/>
-      <c r="B35" t="s">
+    <row r="46">
+      <c r="A46" s="190"/>
+      <c r="B46" t="s">
         <v>38</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E46" t="s">
         <v>72</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F46" t="s">
         <v>13</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="57"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="64"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="72"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="73"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="80"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="81"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="88"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="89"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="96"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="97"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="104"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="105"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="112"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="113"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="120"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="121"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="128"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="129"/>
-      <c r="B46" s="130"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="136"/>
-    </row>
     <row r="47">
-      <c r="A47" s="137"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="144"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="56"/>
     </row>
     <row r="48">
-      <c r="A48" s="145"/>
-      <c r="B48" s="146"/>
-      <c r="C48" s="147"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="152"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="64"/>
     </row>
     <row r="49">
-      <c r="A49" s="153"/>
-      <c r="B49" s="154"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="160"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="72"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="73"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="80"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="81"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="88"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="89"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="96"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="97"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="104"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="105"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="112"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="113"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="120"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="121"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="128"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="129"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="136"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="137"/>
+      <c r="B58" s="138"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="141"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="144"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="145"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="149"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="152"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="153"/>
+      <c r="B60" s="154"/>
+      <c r="C60" s="155"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="159"/>
+      <c r="H60" s="160"/>
     </row>
   </sheetData>
 </worksheet>
